--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rln3-Rxfp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rln3-Rxfp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.050779</v>
+        <v>0.130409</v>
       </c>
       <c r="N2">
-        <v>0.152337</v>
+        <v>0.391227</v>
       </c>
       <c r="O2">
-        <v>0.5296725381250739</v>
+        <v>0.9759813398859937</v>
       </c>
       <c r="P2">
-        <v>0.529672538125074</v>
+        <v>0.9759813398859937</v>
       </c>
       <c r="Q2">
-        <v>0.035809655474</v>
+        <v>0.09196520925399999</v>
       </c>
       <c r="R2">
-        <v>0.322286899266</v>
+        <v>0.8276868832859999</v>
       </c>
       <c r="S2">
-        <v>0.5296725381250739</v>
+        <v>0.9759813398859937</v>
       </c>
       <c r="T2">
-        <v>0.529672538125074</v>
+        <v>0.9759813398859937</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,96 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.04454466666666667</v>
+        <v>0.003209333333333333</v>
       </c>
       <c r="N3">
-        <v>0.133634</v>
+        <v>0.009627999999999999</v>
       </c>
       <c r="O3">
-        <v>0.4646426013365507</v>
+        <v>0.02401866011400631</v>
       </c>
       <c r="P3">
-        <v>0.4646426013365508</v>
+        <v>0.02401866011400631</v>
       </c>
       <c r="Q3">
-        <v>0.03141316620133334</v>
+        <v>0.002263241122666666</v>
       </c>
       <c r="R3">
-        <v>0.282718495812</v>
+        <v>0.020369170104</v>
       </c>
       <c r="S3">
-        <v>0.4646426013365507</v>
+        <v>0.02401866011400631</v>
       </c>
       <c r="T3">
-        <v>0.4646426013365508</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G4">
-        <v>0.705206</v>
-      </c>
-      <c r="H4">
-        <v>2.115618</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.000545</v>
-      </c>
-      <c r="N4">
-        <v>0.001635</v>
-      </c>
-      <c r="O4">
-        <v>0.005684860538375416</v>
-      </c>
-      <c r="P4">
-        <v>0.005684860538375417</v>
-      </c>
-      <c r="Q4">
-        <v>0.00038433727</v>
-      </c>
-      <c r="R4">
-        <v>0.003459035430000001</v>
-      </c>
-      <c r="S4">
-        <v>0.005684860538375416</v>
-      </c>
-      <c r="T4">
-        <v>0.005684860538375417</v>
+        <v>0.02401866011400631</v>
       </c>
     </row>
   </sheetData>
